--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DB80F7-13BD-47E8-8DF5-3EB313E838A7}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C302E8D4-7B67-440F-BD05-97A9E8B2EE42}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -1161,7 +1161,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E39" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C302E8D4-7B67-440F-BD05-97A9E8B2EE42}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AA673DD-AB83-4F5B-BE63-D4110AD1E9C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -163,6 +163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,7 +489,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1.579</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,16 +540,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1.706</v>
+        <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>1.212</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,16 +574,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1.044</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,16 +591,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.70199999999999996</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,16 +608,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <v>89</v>
-      </c>
-      <c r="E7">
-        <v>1.369</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,10 +625,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1.373</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,16 +636,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>1.0860000000000001</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,16 +653,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.18</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,16 +670,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>0.624</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,10 +693,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.90300000000000002</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,10 +710,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>1.3420000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,10 +727,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>0.56499999999999995</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,10 +744,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1.381</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,12 +760,6 @@
       <c r="C16">
         <v>63</v>
       </c>
-      <c r="D16">
-        <v>53</v>
-      </c>
-      <c r="E16">
-        <v>0.84099999999999997</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -780,10 +772,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1.044</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,16 +783,16 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D18">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>0.753</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,16 +800,16 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,10 +823,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0.90600000000000003</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,10 +840,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>1.0229999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,16 +851,16 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,16 +868,16 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,16 +885,16 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,16 +902,16 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D25">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,13 +922,13 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,16 +936,16 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,16 +970,16 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,16 +987,16 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D30">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,16 +1004,16 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>141</v>
+      </c>
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>85</v>
-      </c>
-      <c r="D31">
-        <v>85</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,10 +1027,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>0.90800000000000003</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,10 +1044,10 @@
         <v>358</v>
       </c>
       <c r="D33">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0.86599999999999999</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,12 +1060,6 @@
       <c r="C34">
         <v>337</v>
       </c>
-      <c r="D34">
-        <v>225</v>
-      </c>
-      <c r="E34">
-        <v>0.66800000000000004</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1085,12 +1071,6 @@
       <c r="C35">
         <v>230</v>
       </c>
-      <c r="D35">
-        <v>219</v>
-      </c>
-      <c r="E35">
-        <v>0.95199999999999996</v>
-      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1100,13 +1080,13 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="D36">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>1.389</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,16 +1094,16 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>378</v>
+        <v>220</v>
       </c>
       <c r="D37">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="E37">
-        <v>0.56899999999999995</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,16 +1111,16 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="D38">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1.331</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,13 +1131,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>169</v>
-      </c>
-      <c r="D39">
-        <v>219</v>
-      </c>
-      <c r="E39">
-        <v>1.296</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AA673DD-AB83-4F5B-BE63-D4110AD1E9C3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B11CE9F-F33C-4BEE-9E71-538405BFF098}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -546,10 +546,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>0.30299999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>0.38300000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>2.9000000000000001E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,6 +613,12 @@
       <c r="C7">
         <v>61</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -625,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1.2999999999999999E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>6.5000000000000002E-2</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,10 +716,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>0.13200000000000001</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>4.8000000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,10 +778,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>5.8999999999999997E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,10 +795,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>7.9000000000000001E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,10 +812,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>5.6000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,10 +829,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>7.0999999999999994E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,10 +846,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>3.4000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,10 +863,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,10 +880,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>0.34200000000000003</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,10 +897,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>9.1999999999999998E-2</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,10 +914,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>5.3999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,10 +948,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>2.8000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,10 +965,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,10 +982,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>4.5999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,10 +999,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>5.8000000000000003E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,10 +1016,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>3.5000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,10 +1033,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,10 +1089,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,10 +1106,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>0.15</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,10 +1123,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B11CE9F-F33C-4BEE-9E71-538405BFF098}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1659A6E4-4B6F-4D5B-8147-A2984097BD40}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.105</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,10 +546,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>0.39400000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>0.48899999999999999</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>8.7999999999999995E-2</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1.7000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1.6E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0.04</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>5.5E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1.4999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>4.3999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>0.129</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>0.28899999999999998</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>0.17699999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>9.5000000000000001E-2</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,6 +766,12 @@
       <c r="C16">
         <v>63</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -795,10 +801,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>0.105</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>6.7000000000000004E-2</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -829,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>9.4E-2</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -846,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>4.5999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>0.28599999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>0.44700000000000001</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>0.108</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>7.5999999999999998E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>0.17599999999999999</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>7.0999999999999994E-2</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>5.3999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>7.3999999999999996E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>4.2999999999999997E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,10 +1056,10 @@
         <v>358</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>2.4E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E37">
-        <v>0.182</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>1.7000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,6 +1144,12 @@
       </c>
       <c r="C39">
         <v>214</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1659A6E4-4B6F-4D5B-8147-A2984097BD40}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328289D5-8BE7-499C-A08C-5B9F0ACCE901}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0.26300000000000001</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,10 +546,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>0.78800000000000003</v>
+        <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>0.11799999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>6.9000000000000006E-2</v>
+        <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>9.8000000000000004E-2</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0.107</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>6.4000000000000001E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4.5999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>0.22600000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0.34200000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>0.21</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>0.16700000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1.6E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>0.158</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0.112</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>0.106</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>6.9000000000000006E-2</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>0.57899999999999996</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E24">
-        <v>0.16900000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>0.109</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>0.247</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>3.6999999999999998E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>0.13500000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>8.3000000000000004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>9.1999999999999998E-2</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E32">
-        <v>9.4E-2</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E37">
-        <v>0.495</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E38">
-        <v>3.9E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>8.9999999999999993E-3</v>
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328289D5-8BE7-499C-A08C-5B9F0ACCE901}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077D1B91-34CD-4B60-A027-C20EAC0F17CC}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>0.76600000000000001</v>
+        <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0.32400000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>0.39700000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>0.115</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>0.14699999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>0.10100000000000001</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>6.2E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0.28999999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>0.42099999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>0.26200000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>4.8000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0.184</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>0.18</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>0.188</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>0.53800000000000003</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.37</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>0.318</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>6.4000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>0.17</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>0.13100000000000001</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>0.14000000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>0.121</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>0.123</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,10 +1056,10 @@
         <v>358</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>6.8000000000000005E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37">
-        <v>0.52700000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E38">
-        <v>0.19</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077D1B91-34CD-4B60-A027-C20EAC0F17CC}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7688EF94-6ADD-4666-9A27-EBB703A88A53}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>0.316</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>0.47099999999999997</v>
+        <v>0.64700000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>0.11899999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>7.6999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>5.5E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>0.53200000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>6.3E-2</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>8.7999999999999995E-2</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>0.21099999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>0.191</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>0.10299999999999999</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>0.60699999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>0.65800000000000003</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E24">
-        <v>0.55400000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>0.44600000000000001</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E26">
-        <v>0.47099999999999997</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>9.1999999999999998E-2</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E28">
-        <v>0.191</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>0.154</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>0.14899999999999999</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>0.14199999999999999</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E32">
-        <v>0.152</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>7.1999999999999995E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E37">
-        <v>0.53600000000000003</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E38">
-        <v>0.251</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>1.9E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7688EF94-6ADD-4666-9A27-EBB703A88A53}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74439EE4-49AA-46D1-9572-E51D20E15652}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>0.78700000000000003</v>
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0.64700000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>0.74099999999999999</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>0.13800000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>9.1999999999999998E-2</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>9.9000000000000005E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>0.32300000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>0.54800000000000004</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>0.33300000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0.111</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>0.25</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>0.21299999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>0.23499999999999999</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>0.115</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>0.71399999999999997</v>
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>0.70799999999999996</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>0.58699999999999997</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>0.11899999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>0.23400000000000001</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>0.182</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31">
-        <v>0.184</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>0.17299999999999999</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>9.6000000000000002E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E37">
-        <v>0.57299999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E38">
-        <v>0.45900000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74439EE4-49AA-46D1-9572-E51D20E15652}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69764F82-95EC-42E8-BFE8-852FB8992877}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -529,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>0.36799999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>0.80900000000000005</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>0.70599999999999996</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.79300000000000004</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>0.13100000000000001</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>0.14699999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>0.108</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>0.11</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>0.44700000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>0.56499999999999995</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>0.14299999999999999</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>0.13200000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0.247</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>0.13800000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>0.78600000000000003</v>
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>0.76300000000000001</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>0.73799999999999999</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>0.60899999999999999</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>0.50600000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>0.14699999999999999</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <v>0.255</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>0.2</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>0.19800000000000001</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>0.19900000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E32">
-        <v>0.184</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,10 +1056,10 @@
         <v>358</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>1.7000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E36">
-        <v>0.12</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E37">
-        <v>0.58599999999999997</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E38">
-        <v>0.54500000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>3.6999999999999998E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69764F82-95EC-42E8-BFE8-852FB8992877}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{550F973A-2631-47BD-9679-6A1F108306DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>0.83</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>0.79400000000000004</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6">
-        <v>0.81</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>0.39300000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>0.4</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>0.20200000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>0.154</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>0.14299999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>0.45200000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>0.222</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>0.28199999999999997</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>0.14899999999999999</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <v>0.63</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>0.55300000000000005</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E27">
-        <v>0.376</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>0.34799999999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E29">
-        <v>0.308</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>0.248</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>0.23400000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E32">
-        <v>0.20699999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E36">
-        <v>0.216</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E37">
-        <v>0.6</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E38">
-        <v>0.57099999999999995</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>6.0999999999999999E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{550F973A-2631-47BD-9679-6A1F108306DA}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A38AAD2-4D44-4E98-A4B4-39DF58D87FB4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A38AAD2-4D44-4E98-A4B4-39DF58D87FB4}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D66B17C3-847B-4A3D-95A8-8E5D6A43E67B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +580,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>0.82399999999999995</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>0.82799999999999996</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>0.57399999999999995</v>
+        <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>0.57299999999999995</v>
+        <v>0.77300000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>0.27500000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>0.17599999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>0.58099999999999996</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>0.52400000000000002</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>0.254</v>
+        <v>0.34899999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>0.16200000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>0.23599999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0.29399999999999998</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>0.161</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>0.76900000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>0.64100000000000001</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26">
-        <v>0.624</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E27">
-        <v>0.43099999999999999</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E28">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>0.4</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>0.27300000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E31">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E32">
-        <v>0.24399999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E36">
-        <v>0.33600000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E37">
-        <v>0.64100000000000001</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E38">
-        <v>0.59699999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>8.8999999999999996E-2</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D66B17C3-847B-4A3D-95A8-8E5D6A43E67B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94ABE047-457F-4045-89A0-A8BF2DF60C30}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>0.35499999999999998</v>
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>0.27600000000000002</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>0.82099999999999995</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32">
-        <v>0.27300000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37">
-        <v>0.66400000000000003</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E38">
-        <v>0.64100000000000001</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94ABE047-457F-4045-89A0-A8BF2DF60C30}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C61EDFB-F3E9-4A9E-A43F-C1194B456FD5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>0.68899999999999995</v>
+        <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>0.77300000000000002</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>0.29399999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>0.19800000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>0.38700000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,13 +713,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>0.47399999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>0.629</v>
+        <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>0.61899999999999999</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>0.34899999999999998</v>
+        <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>0.28899999999999998</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>0.25800000000000001</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20">
-        <v>0.318</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>0.184</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0.85699999999999998</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23">
-        <v>0.81599999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24">
-        <v>0.78500000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25">
-        <v>0.69599999999999995</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0.63500000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E27">
-        <v>0.56899999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E28">
-        <v>0.44</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E29">
-        <v>0.51500000000000001</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>0.30599999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E31">
-        <v>0.34</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E32">
-        <v>0.27800000000000002</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,13 +1053,13 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>0.02</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E36">
-        <v>0.36799999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E37">
-        <v>0.66800000000000004</v>
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E38">
-        <v>0.64500000000000002</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E39">
-        <v>0.10299999999999999</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C61EDFB-F3E9-4A9E-A43F-C1194B456FD5}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6D86D8-E76C-48D5-A169-1CC5FAC6B8E5}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.42099999999999999</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>0.85099999999999998</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0.86199999999999999</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>0.70499999999999996</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>0.81299999999999994</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>0.47699999999999998</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>65</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>91</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>0.20899999999999999</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>0.54300000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>0.66100000000000003</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>0.371</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>0.34100000000000003</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>0.19500000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22">
-        <v>0.92900000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>0.81499999999999995</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>92</v>
       </c>
       <c r="D25">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>0.71699999999999997</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>0.65900000000000003</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27">
-        <v>0.63300000000000001</v>
+        <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>141</v>
       </c>
       <c r="D28">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E28">
-        <v>0.56000000000000005</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>130</v>
       </c>
       <c r="D29">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E29">
-        <v>0.59199999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>0.35499999999999998</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>0.36899999999999999</v>
+        <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E32">
-        <v>0.28899999999999998</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E36">
-        <v>0.40799999999999997</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>220</v>
       </c>
       <c r="D37">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E37">
-        <v>0.67300000000000004</v>
+        <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>231</v>
       </c>
       <c r="D38">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E38">
-        <v>0.67100000000000004</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>0.22</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6D86D8-E76C-48D5-A169-1CC5FAC6B8E5}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66402D62-4B60-451D-86E0-EE78652D8760}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
+    <sheet name="proyeccion_2026" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mat_2026!$A$1:$E$39</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>SAE_2026</t>
   </si>
@@ -111,13 +112,44 @@
   </si>
   <si>
     <t>UNI_EDU</t>
+  </si>
+  <si>
+    <t>UNIDAD ACADÉMICA</t>
+  </si>
+  <si>
+    <t>MATRÍCULA 2025.</t>
+  </si>
+  <si>
+    <t>MATRÍCULA PROYECTADA 2026</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES SAE DICIEMBRE 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % ALCANZADO PROYECCIÓN</t>
+  </si>
+  <si>
+    <t>% CRECIMIENTO</t>
+  </si>
+  <si>
+    <t>BÁSICA SAN FELIPE</t>
+  </si>
+  <si>
+    <t>TOTAL ESTUDIANTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +175,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,7 +529,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>0.81799999999999995</v>
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,13 +600,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>0.89400000000000002</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>0.85299999999999998</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>0.879</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>0.77</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>0.89300000000000002</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,13 +685,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E9">
-        <v>0.68799999999999994</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,13 +702,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>0.754</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0.41899999999999998</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>0.67500000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>0.39700000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>0.438</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>0.376</v>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>0.24099999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,10 +926,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>0.84199999999999997</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>0.83099999999999996</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,13 +957,13 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>0.73899999999999999</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26">
-        <v>0.70599999999999996</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27">
-        <v>0.66100000000000003</v>
+        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E28">
-        <v>0.63100000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,13 +1025,13 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E29">
-        <v>0.67700000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E30">
-        <v>0.40500000000000003</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,13 +1059,13 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>0.39700000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,10 +1079,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E32">
-        <v>0.315</v>
+        <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>2.3E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,7 +1110,7 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,7 +1121,13 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>0.317</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1141,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E36">
-        <v>0.42399999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,13 +1155,13 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D37">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E37">
-        <v>0.68200000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,13 +1172,13 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D38">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E38">
-        <v>0.69299999999999995</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,13 +1189,176 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E39">
-        <v>0.30399999999999999</v>
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2C3402-0C17-4819-BE0C-D68186D5792E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>651</v>
+      </c>
+      <c r="C2" s="1">
+        <v>621</v>
+      </c>
+      <c r="D2" s="1">
+        <v>585</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.94202898550724634</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.10138248847926268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>650</v>
+      </c>
+      <c r="C3" s="1">
+        <v>660</v>
+      </c>
+      <c r="D3" s="1">
+        <v>635</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.96212121212121215</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-2.3076923076923106E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C4" s="1">
+        <v>934</v>
+      </c>
+      <c r="D4" s="1">
+        <v>938</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0042826552462527</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-7.2205736894164207E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1133</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1267</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.026742301458671</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11827007943512791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>867</v>
+      </c>
+      <c r="C6" s="1">
+        <v>895</v>
+      </c>
+      <c r="D6" s="1">
+        <v>905</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.011173184357542</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.3829296424452213E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4312</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4344</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4330</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.99677716390423576</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.1743970315399892E-3</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66402D62-4B60-451D-86E0-EE78652D8760}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4151D3EA-D223-400F-B6F2-4FD09BC8C77C}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -117,18 +117,9 @@
     <t>UNIDAD ACADÉMICA</t>
   </si>
   <si>
-    <t>MATRÍCULA 2025.</t>
-  </si>
-  <si>
     <t>MATRÍCULA PROYECTADA 2026</t>
   </si>
   <si>
-    <t>ESTUDIANTES SAE DICIEMBRE 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> % ALCANZADO PROYECCIÓN</t>
-  </si>
-  <si>
     <t>% CRECIMIENTO</t>
   </si>
   <si>
@@ -136,6 +127,15 @@
   </si>
   <si>
     <t>TOTAL ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES ESPERADOS SAE 2026</t>
+  </si>
+  <si>
+    <t>MATRÍCULA 2025</t>
+  </si>
+  <si>
+    <t>% ALCANZADO PROYECCIÓN</t>
   </si>
 </sst>
 </file>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,16 +1207,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2C3402-0C17-4819-BE0C-D68186D5792E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -1226,19 +1226,19 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>1011</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>4312</v>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4151D3EA-D223-400F-B6F2-4FD09BC8C77C}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5444A8C-9A0F-45E8-AA37-3332B39B02AC}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>0.97099999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>0.91400000000000003</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>0.80300000000000005</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>0.93300000000000005</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>0.76600000000000001</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>0.82799999999999996</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>0.53400000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>0.45200000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>0.42899999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>0.27900000000000003</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>0.44</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0.53900000000000003</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>0.41199999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>0.36799999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.107</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +926,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>0.89500000000000002</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24">
-        <v>0.86199999999999999</v>
+        <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>0.75800000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26">
-        <v>0.747</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>108</v>
       </c>
       <c r="D27">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>0.67600000000000005</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>0.67100000000000004</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E29">
-        <v>0.75</v>
+        <v>0.77300000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E30">
-        <v>0.58799999999999997</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>0.55100000000000005</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E32">
-        <v>0.35199999999999998</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>321</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>2.8000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,10 +1124,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="E35">
-        <v>0.317</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E36">
-        <v>0.46400000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,10 +1175,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E38">
-        <v>0.72599999999999998</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>213</v>
       </c>
       <c r="D39">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E39">
-        <v>0.42699999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2C3402-0C17-4819-BE0C-D68186D5792E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5444A8C-9A0F-45E8-AA37-3332B39B02AC}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C73951-23BC-4EBA-8C9B-DB9B1114D27E}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>0.85899999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11">
-        <v>0.65900000000000003</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>0.45300000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>0.47099999999999997</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>0.40200000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>1.107</v>
+        <v>1.143</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +926,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>0.92100000000000004</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>0.89200000000000002</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>0.78</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26">
-        <v>0.77100000000000002</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>108</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27">
-        <v>0.69399999999999995</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E28">
-        <v>0.71399999999999997</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E29">
-        <v>0.77300000000000002</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E30">
-        <v>0.67200000000000004</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E31">
-        <v>0.61599999999999999</v>
+        <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,10 +1124,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E35">
-        <v>0.52800000000000002</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,10 +1158,10 @@
         <v>216</v>
       </c>
       <c r="D37">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E37">
-        <v>0.70799999999999996</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,10 +1175,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E38">
-        <v>0.73899999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>213</v>
       </c>
       <c r="D39">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E39">
-        <v>0.53100000000000003</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C73951-23BC-4EBA-8C9B-DB9B1114D27E}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C49DF8-18C0-441F-942E-83F698B84CDA}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7">
-        <v>0.82</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9">
-        <v>0.80400000000000005</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>0.875</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E11">
-        <v>0.69299999999999995</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>0.48399999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>0.57099999999999995</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>0.74199999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>0.44400000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>0.309</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>0.48</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>0.48199999999999998</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>0.44800000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24">
-        <v>0.95399999999999996</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>0.79100000000000004</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26">
-        <v>0.80700000000000005</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>108</v>
       </c>
       <c r="D27">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E27">
-        <v>0.71299999999999997</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E28">
-        <v>0.77100000000000002</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29">
-        <v>0.82</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E30">
-        <v>0.73099999999999998</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E31">
-        <v>0.68100000000000005</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E32">
-        <v>0.375</v>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>321</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>3.1E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,10 +1124,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="E35">
-        <v>0.61499999999999999</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E36">
-        <v>0.54</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,10 +1158,10 @@
         <v>216</v>
       </c>
       <c r="D37">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37">
-        <v>0.72199999999999998</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,10 +1175,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E38">
-        <v>0.74299999999999999</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>213</v>
       </c>
       <c r="D39">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E39">
-        <v>0.65300000000000002</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C49DF8-18C0-441F-942E-83F698B84CDA}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01961F4D-1AF3-4D47-A931-6A2CA8B17DD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -685,13 +685,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>87</v>
       </c>
       <c r="E9">
-        <v>0.81299999999999994</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>0.76100000000000001</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>0.79</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.50800000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>0.35299999999999998</v>
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>0.50700000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>0.58399999999999996</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>0.54100000000000004</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>0.54</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>0.96899999999999997</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25">
-        <v>0.83499999999999996</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>0.83099999999999996</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27">
-        <v>0.76900000000000002</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E28">
-        <v>0.80700000000000005</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E29">
-        <v>0.82799999999999996</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30">
-        <v>0.82399999999999995</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E31">
-        <v>0.746</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>381</v>
       </c>
       <c r="D32">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E32">
-        <v>0.41199999999999998</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>321</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>3.4000000000000002E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,6 +1112,12 @@
       <c r="C34">
         <v>320</v>
       </c>
+      <c r="D34">
+        <v>69</v>
+      </c>
+      <c r="E34">
+        <v>0.216</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1124,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E35">
-        <v>0.88500000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E36">
-        <v>0.55600000000000005</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,13 +1161,13 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D37">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E37">
-        <v>0.72699999999999998</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E38">
-        <v>0.77400000000000002</v>
+        <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,13 +1195,13 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D39">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E39">
-        <v>0.76100000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01961F4D-1AF3-4D47-A931-6A2CA8B17DD7}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17C8A222-2D0C-488C-8562-ED4131387EB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -620,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.0589999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>0.93100000000000005</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>0.83599999999999997</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8">
-        <v>0.94699999999999995</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>0.80600000000000005</v>
+        <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10">
-        <v>0.92200000000000004</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E11">
-        <v>0.78400000000000003</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>0.80600000000000005</v>
+        <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>0.54</v>
+        <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>0.38200000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>0.53300000000000003</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19">
-        <v>0.64</v>
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>0.61199999999999999</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>0.56299999999999994</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24">
-        <v>0.98499999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>0.85699999999999998</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26">
-        <v>0.84299999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27">
-        <v>0.77100000000000002</v>
+        <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E28">
-        <v>0.83599999999999997</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30">
-        <v>0.83199999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E31">
-        <v>0.77500000000000002</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="D32">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E32">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D34">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <v>0.216</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E35">
-        <v>0.89</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E36">
-        <v>0.56799999999999995</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E37">
-        <v>0.72799999999999998</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E38">
-        <v>0.78300000000000003</v>
+        <v>0.79600000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E39">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17C8A222-2D0C-488C-8562-ED4131387EB2}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A79860-D9ED-4A14-BA13-BD625D0FC52B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>0.93500000000000005</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>0.85199999999999998</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>0.98699999999999999</v>
+        <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9">
-        <v>0.83299999999999996</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10">
-        <v>0.96899999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11">
-        <v>0.83</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27">
-        <v>0.78900000000000003</v>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28">
-        <v>0.86399999999999999</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E32">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>5.8000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E34">
-        <v>0.47399999999999998</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36">
-        <v>0.6</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39">
-        <v>0.79</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A79860-D9ED-4A14-BA13-BD625D0FC52B}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E868E8C3-F305-4200-B05D-C3B5AA8B891A}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
@@ -1213,14 +1213,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2C3402-0C17-4819-BE0C-D68186D5792E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
@@ -1258,13 +1258,15 @@
         <v>621</v>
       </c>
       <c r="D2" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E2" s="2">
-        <v>0.94202898550724634</v>
+        <f>D2/C2</f>
+        <v>0.94363929146537839</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.10138248847926268</v>
+        <f>D2/B2-1</f>
+        <v>-9.9846390168970789E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,9 +1283,11 @@
         <v>635</v>
       </c>
       <c r="E3" s="2">
+        <f>D3/C3</f>
         <v>0.96212121212121215</v>
       </c>
       <c r="F3" s="2">
+        <f t="shared" ref="F3:F7" si="0">D3/B3-1</f>
         <v>-2.3076923076923106E-2</v>
       </c>
     </row>
@@ -1298,13 +1302,15 @@
         <v>934</v>
       </c>
       <c r="D4" s="1">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E4" s="2">
-        <v>1.0042826552462527</v>
+        <f>D4/C4</f>
+        <v>1.0053533190578159</v>
       </c>
       <c r="F4" s="2">
-        <v>-7.2205736894164207E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.1216617210682509E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,13 +1324,15 @@
         <v>1234</v>
       </c>
       <c r="D5" s="1">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E5" s="2">
-        <v>1.026742301458671</v>
+        <f>D5/C5</f>
+        <v>1.0259319286871962</v>
       </c>
       <c r="F5" s="2">
-        <v>0.11827007943512791</v>
+        <f t="shared" si="0"/>
+        <v>0.11738746690203006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,13 +1346,15 @@
         <v>895</v>
       </c>
       <c r="D6" s="1">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E6" s="2">
-        <v>1.011173184357542</v>
+        <f>D6/C6</f>
+        <v>1.0134078212290503</v>
       </c>
       <c r="F6" s="2">
-        <v>4.3829296424452213E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6136101499423265E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,13 +1368,15 @@
         <v>4344</v>
       </c>
       <c r="D7" s="1">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="E7" s="2">
-        <v>0.99677716390423576</v>
+        <f>D7/C7</f>
+        <v>0.99746777163904232</v>
       </c>
       <c r="F7" s="2">
-        <v>4.1743970315399892E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.8701298701299134E-3</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E868E8C3-F305-4200-B05D-C3B5AA8B891A}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5604878D-5C2A-410C-8ADC-8E2B30E62ADD}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0.57899999999999996</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>0.95699999999999996</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>1.0589999999999999</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>0.94799999999999995</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>0.86899999999999999</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <v>0.84299999999999997</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>0.98399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11">
-        <v>0.85199999999999998</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>0.51600000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>0.68600000000000005</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>0.82299999999999995</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>0.42599999999999999</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>0.58699999999999997</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>0.68500000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>0.60899999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E28">
-        <v>0.871</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29">
-        <v>0.84399999999999997</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E30">
-        <v>0.84899999999999998</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E31">
-        <v>0.81899999999999995</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E32">
-        <v>0.47499999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="E34">
-        <v>0.51200000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E35">
-        <v>0.91700000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E36">
-        <v>0.60799999999999998</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E37">
-        <v>0.747</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E38">
-        <v>0.79600000000000004</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E39">
-        <v>0.79400000000000004</v>
+        <v>0.79900000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2C3402-0C17-4819-BE0C-D68186D5792E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1261,7 +1261,7 @@
         <v>586</v>
       </c>
       <c r="E2" s="2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E7" si="0">D2/C2</f>
         <v>0.94363929146537839</v>
       </c>
       <c r="F2" s="2">
@@ -1283,11 +1283,11 @@
         <v>635</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.96212121212121215</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="0">D3/B3-1</f>
+        <f t="shared" ref="F3:F7" si="1">D3/B3-1</f>
         <v>-2.3076923076923106E-2</v>
       </c>
     </row>
@@ -1305,11 +1305,11 @@
         <v>939</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>1.0053533190578159</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.1216617210682509E-2</v>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         <v>1266</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>1.0259319286871962</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11738746690203006</v>
       </c>
     </row>
@@ -1349,11 +1349,11 @@
         <v>907</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>1.0134078212290503</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6136101499423265E-2</v>
       </c>
     </row>
@@ -1371,11 +1371,11 @@
         <v>4333</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.99746777163904232</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8701298701299134E-3</v>
       </c>
     </row>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5604878D-5C2A-410C-8ADC-8E2B30E62ADD}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3A91E2-E3BF-4514-8DD6-17AC92F1C48E}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0.68400000000000005</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>0.84799999999999998</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>0.96599999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>0.89800000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>0.54800000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>0.71399999999999997</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>0.83899999999999997</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>0.60299999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>0.441</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>0.61299999999999999</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19">
-        <v>0.70799999999999996</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>0.67100000000000004</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>0.66700000000000004</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25">
-        <v>0.879</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>0.85499999999999998</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E28">
-        <v>0.88600000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30">
-        <v>0.874</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31">
-        <v>0.84099999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E32">
-        <v>0.49199999999999999</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E33">
-        <v>6.0999999999999999E-2</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="E34">
-        <v>0.63700000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E35">
-        <v>0.92700000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E36">
-        <v>0.62</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E37">
-        <v>0.751</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E38">
-        <v>0.81899999999999995</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E39">
-        <v>0.79900000000000004</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3A91E2-E3BF-4514-8DD6-17AC92F1C48E}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47FD0B7-9418-45D8-A087-DBDBF622D0A1}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0.73699999999999999</v>
+        <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>0.90700000000000003</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>0.61299999999999999</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>0.88700000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>0.63500000000000001</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>0.55900000000000005</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>0.70699999999999996</v>
+        <v>0.77300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E19">
-        <v>0.753</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20">
-        <v>0.76500000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>0.70099999999999996</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25">
-        <v>0.90100000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27">
-        <v>0.79800000000000004</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28">
-        <v>0.9</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29">
-        <v>0.85199999999999998</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E30">
-        <v>0.88200000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31">
-        <v>0.85499999999999998</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E32">
-        <v>0.52800000000000002</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E33">
-        <v>0.28999999999999998</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E34">
-        <v>0.88200000000000001</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E35">
-        <v>0.93600000000000005</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E36">
-        <v>0.65200000000000002</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E38">
-        <v>0.83199999999999996</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47FD0B7-9418-45D8-A087-DBDBF622D0A1}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96AE0085-6443-46CD-B98D-C643E71E72E8}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9">
-        <v>0.92600000000000005</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11">
-        <v>0.88600000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>0.65100000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>0.85399999999999998</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>1.143</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24">
-        <v>1.0149999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25">
-        <v>0.91200000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27">
-        <v>0.80700000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>0.85899999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31">
-        <v>0.87</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E32">
-        <v>0.55800000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E33">
-        <v>0.55800000000000005</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E34">
-        <v>0.89400000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E36">
-        <v>0.68400000000000005</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37">
-        <v>0.76</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E38">
-        <v>0.84099999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E39">
-        <v>0.80400000000000005</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96AE0085-6443-46CD-B98D-C643E71E72E8}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8E7D26-FF6B-425E-B711-35D56313372C}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>0.61799999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>0.77300000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26">
-        <v>0.86699999999999999</v>
+        <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27">
-        <v>0.81699999999999995</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E31">
-        <v>0.877</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E32">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="E33">
-        <v>0.59099999999999997</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E34">
-        <v>0.90400000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E35">
-        <v>0.95</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E36">
-        <v>0.68799999999999994</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37">
-        <v>0.76500000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E38">
-        <v>0.85399999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E39">
-        <v>0.81299999999999994</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8E7D26-FF6B-425E-B711-35D56313372C}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A9A4D3-8C79-4076-A8D1-D75DC30F1214}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.78900000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>0.879</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>1.022</v>
+        <v>1.0429999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>1.016</v>
+        <v>1.0309999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11">
-        <v>0.90900000000000003</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>0.67700000000000005</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>0.8</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>0.66700000000000004</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>0.63200000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>0.73599999999999999</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29">
-        <v>0.86699999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E32">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="E33">
-        <v>0.73199999999999998</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E36">
-        <v>0.70399999999999996</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E37">
-        <v>0.77</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E38">
-        <v>0.86299999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E39">
-        <v>0.82699999999999996</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A9A4D3-8C79-4076-A8D1-D75DC30F1214}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C886147-0C76-4B25-864D-5771323DBA23}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -203,10 +203,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,10 +735,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>0.71</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +786,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>0.82499999999999996</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +803,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>0.71399999999999997</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +820,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>0.67600000000000005</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +854,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19">
-        <v>0.86499999999999999</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +956,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>0.92300000000000004</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +990,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27">
-        <v>0.83499999999999996</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1024,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E29">
-        <v>0.875</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1058,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31">
-        <v>0.89100000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1075,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E32">
-        <v>0.59</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1092,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E33">
-        <v>0.85099999999999998</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1109,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E34">
-        <v>0.91300000000000003</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1126,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E35">
-        <v>0.95399999999999996</v>
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1143,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E36">
-        <v>0.71199999999999997</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1160,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E37">
-        <v>0.77900000000000003</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1177,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E38">
-        <v>0.86699999999999999</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1194,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E39">
-        <v>0.83199999999999996</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C886147-0C76-4B25-864D-5771323DBA23}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F1A6035-9959-461A-96BD-3C07BFC5341E}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -203,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4">
-        <v>1.0429999999999999</v>
+        <v>1.0649999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>0.88500000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>0.77400000000000002</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>0.90300000000000002</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>0.69099999999999995</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>0.82699999999999996</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>0.876</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20">
-        <v>0.77600000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21">
-        <v>0.747</v>
+        <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29">
-        <v>0.89100000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E32">
-        <v>0.61799999999999999</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E33">
-        <v>0.86599999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E35">
-        <v>0.95899999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E36">
-        <v>0.71599999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E37">
-        <v>0.78800000000000003</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E38">
-        <v>0.872</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E39">
-        <v>0.83599999999999997</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F1A6035-9959-461A-96BD-3C07BFC5341E}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C47FADF-59A6-43FB-ACB5-9AC7B9DAFA74}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>0.80600000000000005</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>0.72099999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20">
-        <v>0.78800000000000003</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21">
-        <v>0.78200000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>0.89200000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E28">
-        <v>0.90700000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E29">
-        <v>0.89800000000000002</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E30">
-        <v>0.89900000000000002</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31">
-        <v>0.89900000000000002</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E32">
-        <v>0.66800000000000004</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E33">
-        <v>0.89600000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E34">
-        <v>0.92900000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E36">
-        <v>0.72799999999999998</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E37">
-        <v>0.80200000000000005</v>
+        <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C47FADF-59A6-43FB-ACB5-9AC7B9DAFA74}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA616E6-EE5D-4E25-822A-B8122C9A1DDC}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>0.83899999999999997</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>0.73</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>0.76500000000000001</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18">
-        <v>0.86699999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>0.80500000000000005</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24">
-        <v>1.0309999999999999</v>
+        <v>1.0620000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26">
-        <v>0.90400000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E29">
-        <v>0.91400000000000003</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30">
-        <v>0.91600000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31">
-        <v>0.90600000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>398</v>
       </c>
       <c r="D32">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E32">
-        <v>0.70099999999999996</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>328</v>
       </c>
       <c r="D33">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E33">
-        <v>0.90200000000000002</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>322</v>
       </c>
       <c r="D34">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E34">
-        <v>0.93200000000000005</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E36">
-        <v>0.74399999999999999</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E37">
-        <v>0.81100000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E38">
-        <v>0.88900000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA616E6-EE5D-4E25-822A-B8122C9A1DDC}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E3EAF86-9D9E-4DF6-8A4F-4BEF33416A2A}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.89500000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>1.0880000000000001</v>
+        <v>1.147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>0.90200000000000002</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8">
-        <v>1.0129999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>0.93500000000000005</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11">
-        <v>0.92</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>0.90300000000000002</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>0.91900000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>0.77900000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19">
-        <v>0.92100000000000004</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>0.81200000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21">
-        <v>0.82799999999999996</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>1.0620000000000001</v>
+        <v>1.0920000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>0.91600000000000004</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27">
-        <v>0.84399999999999997</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E28">
-        <v>0.92100000000000004</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E29">
-        <v>0.93799999999999994</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E30">
-        <v>0.92400000000000004</v>
+        <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E31">
-        <v>0.91300000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D32">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="E32">
-        <v>0.70899999999999996</v>
+        <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D33">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E33">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D34">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E34">
-        <v>0.93500000000000005</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E35">
-        <v>0.96799999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E36">
-        <v>0.752</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E37">
-        <v>0.81599999999999995</v>
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E38">
-        <v>0.89800000000000002</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E39">
-        <v>0.84099999999999997</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E3EAF86-9D9E-4DF6-8A4F-4BEF33416A2A}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9DC6DE-4E6A-42AE-82F8-1DE964FA9D48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0.94699999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>0.96299999999999997</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>0.96799999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>0.88200000000000001</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18">
-        <v>0.92</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20">
-        <v>0.88200000000000001</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21">
-        <v>0.86199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28">
-        <v>0.93600000000000005</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E29">
-        <v>0.95299999999999996</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31">
-        <v>0.92800000000000005</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E32">
-        <v>0.78300000000000003</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E33">
-        <v>0.93899999999999995</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>323</v>
       </c>
       <c r="D34">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E34">
-        <v>0.95</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E35">
-        <v>0.99099999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E36">
-        <v>0.78</v>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E37">
-        <v>0.84799999999999998</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E38">
-        <v>0.92</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E39">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9DC6DE-4E6A-42AE-82F8-1DE964FA9D48}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5854BF37-E036-4545-91CD-44B5521D9B00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8">
-        <v>1.04</v>
+        <v>1.0529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10">
-        <v>1.0309999999999999</v>
+        <v>1.0469999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>0.76200000000000001</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>0.91200000000000003</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>0.94699999999999995</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19">
-        <v>0.93300000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24">
-        <v>1.0920000000000001</v>
+        <v>1.1080000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27">
-        <v>0.872</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E29">
-        <v>0.96899999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30">
-        <v>0.95799999999999996</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E32">
-        <v>0.81899999999999995</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E33">
-        <v>0.95399999999999996</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>323</v>
       </c>
       <c r="D34">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E34">
-        <v>0.95399999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E36">
-        <v>0.80800000000000005</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E37">
-        <v>0.85699999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E38">
-        <v>0.92900000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E39">
-        <v>0.86</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5854BF37-E036-4545-91CD-44B5521D9B00}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D7D048-EB69-42CE-AB86-67CA69ADE0B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>0.90900000000000003</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.0169999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10">
-        <v>1.0469999999999999</v>
+        <v>1.0620000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11">
-        <v>0.94299999999999995</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>0.93500000000000005</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>0.79400000000000004</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>0.94099999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>0.96</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>0.94399999999999995</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20">
-        <v>0.90600000000000003</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21">
-        <v>0.92</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27">
-        <v>0.88100000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28">
-        <v>0.94299999999999995</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29">
-        <v>0.98399999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
-        <v>0.93500000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E32">
-        <v>0.84399999999999997</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E33">
-        <v>0.96</v>
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>323</v>
       </c>
       <c r="D34">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E34">
-        <v>0.95699999999999996</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E35">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E36">
-        <v>0.82399999999999995</v>
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E37">
-        <v>0.86199999999999999</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E38">
-        <v>0.94199999999999995</v>
+        <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E39">
-        <v>0.86399999999999999</v>
+        <v>0.874</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D7D048-EB69-42CE-AB86-67CA69ADE0B0}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DCEB7E-DD2B-4BC0-BCD9-4289C818575C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.0529999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>0.93899999999999995</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>1.147</v>
+        <v>1.1759999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>0.95499999999999996</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.0649999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>0.96799999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>0.98699999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19">
-        <v>0.96599999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21">
-        <v>0.93100000000000005</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +926,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>0.94699999999999995</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E25">
-        <v>0.93400000000000005</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27">
-        <v>0.89</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E28">
-        <v>0.95</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E31">
-        <v>0.94199999999999995</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E32">
-        <v>0.88200000000000001</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E33">
-        <v>0.97899999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E36">
-        <v>0.84799999999999998</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E37">
-        <v>0.876</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DCEB7E-DD2B-4BC0-BCD9-4289C818575C}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F0F5D3-3F47-48C2-9D86-605C5CBC3D2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1.0529999999999999</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11">
-        <v>0.96599999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>0.82899999999999996</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>0.84099999999999997</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>0.92900000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>1.179</v>
+        <v>1.214</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31">
-        <v>0.95699999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E32">
-        <v>0.91400000000000003</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E33">
-        <v>0.98199999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>323</v>
       </c>
       <c r="D34">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E34">
-        <v>0.96299999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E36">
-        <v>0.876</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E37">
-        <v>0.89400000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E38">
-        <v>0.95099999999999996</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F0F5D3-3F47-48C2-9D86-605C5CBC3D2A}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C2A296-2A61-4660-A8EE-C9BF6E94432B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9">
-        <v>0.97199999999999998</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>1.0649999999999999</v>
+        <v>1.097</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>0.85699999999999998</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>0.85699999999999998</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20">
-        <v>0.95299999999999996</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>1.214</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24">
-        <v>1.1080000000000001</v>
+        <v>1.123</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E27">
-        <v>0.89900000000000002</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28">
-        <v>0.95699999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E32">
-        <v>0.91900000000000004</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E33">
-        <v>0.98499999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>323</v>
       </c>
       <c r="D34">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E34">
-        <v>0.96599999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E36">
-        <v>0.88800000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E37">
-        <v>0.90300000000000002</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E39">
-        <v>0.874</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C2A296-2A61-4660-A8EE-C9BF6E94432B}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEC27D1E-839F-44AA-A18A-F6AC52A622EC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>1.0649999999999999</v>
+        <v>1.087</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28">
-        <v>0.96399999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E32">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E39">
-        <v>0.89300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEC27D1E-839F-44AA-A18A-F6AC52A622EC}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B65CD5-E9AF-4257-B7A2-0261C212770F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D32" sqref="D32:D35"/>
     </sheetView>
   </sheetViews>
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E32">
-        <v>0.96</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E33">
-        <v>0.99099999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B65CD5-E9AF-4257-B7A2-0261C212770F}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE691C3-41FA-4402-B868-348F875F6713}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8">
-        <v>1.0529999999999999</v>
+        <v>1.0669999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E32">
-        <v>0.96199999999999997</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E36">
-        <v>0.90400000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E39">
-        <v>0.89700000000000002</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE691C3-41FA-4402-B868-348F875F6713}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEDD066-C120-427F-AFF7-5EAE97E1ACA5}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="D19">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>1.0109999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20">
-        <v>0.97599999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26">
-        <v>0.97599999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>0.92700000000000005</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E28">
-        <v>0.97099999999999997</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E32">
-        <v>0.97</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E36">
-        <v>0.90800000000000003</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEDD066-C120-427F-AFF7-5EAE97E1ACA5}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2206929-602B-4C0B-B395-43F8FD1400D9}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC1322-F2C4-4535-882A-673ED2A7B0F2}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E32">
-        <v>0.97499999999999998</v>
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E36">
-        <v>0.91200000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E39">
-        <v>0.92100000000000004</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2206929-602B-4C0B-B395-43F8FD1400D9}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2583306-FCBD-4258-B650-2C478E1F8903}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>0.91800000000000004</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>1.25</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25">
-        <v>0.96699999999999997</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27">
-        <v>0.91700000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E32">
-        <v>0.97699999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E39">
-        <v>0.93</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2583306-FCBD-4258-B650-2C478E1F8903}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5E15E5-458C-42A0-B7E7-3209C912AD5F}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9">
-        <v>0.99099999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>397</v>
       </c>
       <c r="D32">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E32">
-        <v>0.98499999999999999</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5E15E5-458C-42A0-B7E7-3209C912AD5F}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5099C1E4-96D7-4BAE-BBCC-802B6A16D36D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,13 +889,13 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>83</v>
       </c>
       <c r="E21">
-        <v>0.95399999999999996</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24">
-        <v>1.123</v>
+        <v>1.1379999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27">
-        <v>0.92700000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E29">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30">
-        <v>0.96599999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D32">
         <v>390</v>
       </c>
       <c r="E32">
-        <v>0.98199999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E36">
-        <v>0.91600000000000004</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5099C1E4-96D7-4BAE-BBCC-802B6A16D36D}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4696724-BC39-4AE7-A90E-04A1057D6D62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -569,10 +569,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1.105</v>
+        <v>1.1579999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>88</v>
       </c>
       <c r="D21">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21">
-        <v>0.94299999999999995</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>0.96399999999999997</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31">
-        <v>0.96399999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>396</v>
       </c>
       <c r="D32">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E32">
-        <v>0.98499999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E36">
-        <v>0.92</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4696724-BC39-4AE7-A90E-04A1057D6D62}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA85135A-4684-4055-B3CF-90DB1205979F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E27">
-        <v>0.93600000000000005</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31">
-        <v>0.97099999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E36">
-        <v>0.92400000000000004</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E38">
-        <v>0.95599999999999996</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA85135A-4684-4055-B3CF-90DB1205979F}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED11B4A-EEC7-4F8F-A7D5-01612960B5B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.0109999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
-        <v>1.008</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30">
-        <v>0.97499999999999998</v>
+        <v>0.98299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>396</v>
       </c>
       <c r="D32">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E32">
-        <v>0.99</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E36">
-        <v>0.93600000000000005</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED11B4A-EEC7-4F8F-A7D5-01612960B5B1}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFC3A84-050B-437A-A8E5-1DECE9ADFB1C}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>1.097</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>0.98399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30">
-        <v>0.98299999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>396</v>
       </c>
       <c r="D32">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E32">
-        <v>0.99199999999999999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFC3A84-050B-437A-A8E5-1DECE9ADFB1C}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8063A097-180C-4378-9176-09F403299C4D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
+    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="mat_2026" sheetId="1" r:id="rId1"/>
@@ -1079,10 +1079,10 @@
         <v>396</v>
       </c>
       <c r="D32">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E32">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8063A097-180C-4378-9176-09F403299C4D}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D465B85E-D2EE-4B16-91D8-733C29BF5D9E}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>1.087</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>1.0109999999999999</v>
+        <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30">
-        <v>0.99199999999999999</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E36">
-        <v>0.94</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D465B85E-D2EE-4B16-91D8-733C29BF5D9E}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4968B1-D261-441F-8304-2463C9A830BB}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -586,10 +586,10 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>1.109</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,10 +620,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>1.1759999999999999</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>1.0169999999999999</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>0.93400000000000005</v>
+        <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8">
-        <v>1.0669999999999999</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>1.0369999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
-        <v>1.0620000000000001</v>
+        <v>1.0780000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11">
-        <v>1.0229999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>1.129</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>1.097</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>0.873</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>0.95599999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18">
-        <v>1.0129999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E20">
-        <v>0.98799999999999999</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>88</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E21">
-        <v>0.95499999999999996</v>
+        <v>1.0109999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>1.286</v>
+        <v>1.321</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +926,10 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>0.97399999999999998</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>65</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24">
-        <v>1.1379999999999999</v>
+        <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>91</v>
       </c>
       <c r="D25">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E25">
-        <v>0.97799999999999998</v>
+        <v>1.0109999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26">
-        <v>0.97599999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>109</v>
       </c>
       <c r="D27">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27">
-        <v>0.95399999999999996</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>140</v>
       </c>
       <c r="D28">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E28">
-        <v>0.95699999999999996</v>
+        <v>1.0069999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E29">
-        <v>1.016</v>
+        <v>1.0389999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>119</v>
       </c>
       <c r="D30">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E30">
-        <v>1.008</v>
+        <v>1.034</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>138</v>
       </c>
       <c r="D31">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E31">
-        <v>0.98599999999999999</v>
+        <v>1.0289999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>396</v>
       </c>
       <c r="D32">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E32">
-        <v>0.995</v>
+        <v>1.0329999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E33">
-        <v>0.99399999999999999</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
         <v>323</v>
       </c>
       <c r="D34">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E34">
-        <v>0.96899999999999997</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E36">
-        <v>0.95199999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E37">
-        <v>0.91700000000000004</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E38">
-        <v>0.96</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>214</v>
       </c>
       <c r="D39">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E39">
-        <v>0.93500000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/data/mat_2026.xlsx
+++ b/src/pages/data/mat_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4968B1-D261-441F-8304-2463C9A830BB}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{D3DC1C62-A0A1-41AB-9E62-302D8C909E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EA3399-3C94-4316-B217-16DDA15115C5}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11040" xr2:uid="{36BD599D-36E1-42BF-8C27-3007C624F7E1}"/>
   </bookViews>
@@ -603,10 +603,10 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>1.1299999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>0.91400000000000003</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>68</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>1.0149999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E20">
-        <v>1.012</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1096,10 @@
         <v>329</v>
       </c>
       <c r="D33">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E33">
-        <v>1.024</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>250</v>
       </c>
       <c r="D36">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>226</v>
       </c>
       <c r="D38">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E38">
-        <v>0.98199999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
